--- a/data/hotels_by_city/Dallas/Dallas_shard_559.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,285 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r477297224-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>243548</t>
+  </si>
+  <si>
+    <t>477297224</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Awful (from a Motel 6 lover)</t>
+  </si>
+  <si>
+    <t>When it comes to quick or extended stays on a budget, I always choose motels and absolutely prefer Motel 6 because the quality and cleanliness is always reliable, until the Motel 6 Dallas-Irving. The non-smoking room had an ashtray in it, burn stains on the curtains and bedspreads, and smelled as though it had been heavily smoked in for some time. There were baby roaches crawling all over the TV stand and dead baby roaches in the tub. When water was run in the tub it didn't drain. The floors had not been swept in some time (and mopped god knows when). There were drink spills on the floor and beds, and dingy stains on the bedskirts. It was so awful. I asked for another room and was given one, but the issues were the same with that room. It was too late after a very long drive to find another motel. I just cried. I want my money back and now question my loyalty to Motel 6. Just gross. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>When it comes to quick or extended stays on a budget, I always choose motels and absolutely prefer Motel 6 because the quality and cleanliness is always reliable, until the Motel 6 Dallas-Irving. The non-smoking room had an ashtray in it, burn stains on the curtains and bedspreads, and smelled as though it had been heavily smoked in for some time. There were baby roaches crawling all over the TV stand and dead baby roaches in the tub. When water was run in the tub it didn't drain. The floors had not been swept in some time (and mopped god knows when). There were drink spills on the floor and beds, and dingy stains on the bedskirts. It was so awful. I asked for another room and was given one, but the issues were the same with that room. It was too late after a very long drive to find another motel. I just cried. I want my money back and now question my loyalty to Motel 6. Just gross. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r461394701-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>461394701</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Lovely Motel 6, greeted cordially, hotel beautifully clean everywhere, nice linen and towels. Would stay here again, one of the best Motel 6 I have stayed in. Convenient for Fort Worth airport, food available nearby.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r441111562-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>441111562</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Clean clean clean</t>
+  </si>
+  <si>
+    <t>One of the cleanest motel 6 I ever stayed at will definitely stay there again. Bed sheets had a good smell and pillows were very soft. Definitely good for the price. Would recommend anyone coming in town to pick here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r373941843-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>373941843</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Relocating my son from university in Troy Alabama to Parker University Dallas we stayed two nights at the Motel 6. Very convenient position just off the highway. The rooms were large and very clean. The small fridge was useful as was the microwave and coffee machine. Staff very professional. Breakfast not so good and was completely self-service but would recommend the motel.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r372647806-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>372647806</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Bedding: need new pillows and coverlets</t>
+  </si>
+  <si>
+    <t>Location was good for our needed stay; also there was a Waffle House and Whataburger close by. But the flooring was in poor shape, no Kleenex or extras of any kind.  Too noisy.  The air conditioner worked but did not seem to keep the moisture out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - Irving, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Location was good for our needed stay; also there was a Waffle House and Whataburger close by. But the flooring was in poor shape, no Kleenex or extras of any kind.  Too noisy.  The air conditioner worked but did not seem to keep the moisture out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r362126632-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>362126632</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Weekend Trip - Needed a cheap place to sleep and clean myself</t>
+  </si>
+  <si>
+    <t>I was on a weekend trip to DFW, and simply needed a cheap place to sleep, as well as get ready for my day.  Although not necessarily the cleanest hotel in the world, this Motel 6 provided me with exactly what I needed.  The bed was quite firm, and the bathtub looked like it hadn't been as clean as it could be, but the shower was nice, the TV worked just fine, the temperature of the room was easily adjustable.  If you need somewhere cheap, without any of the fancy amenities of a 5-star hotel, then I recommend this place!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r312523452-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>312523452</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Needless fretting</t>
+  </si>
+  <si>
+    <t>This area of Irving is underserved for lodging with pets!  Thus our selection of this place, being close to where we needed to be.   That said, upon approach I was apprehensive, but all things considered it was just fine.  We received the type and location of room we preferred.  This is a no frills property; no in room frig, micro, coffee and only soap for toiletries.  (however, probably shampoo, etc available in the office).  WIFI costs additional.Beds reasonable although the sheets were heavily pilled.  If need be, would stay again.Yes convenient to Waffle House and Whataburger!!! (yum)</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r269404105-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>269404105</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need a place to crash </t>
+  </si>
+  <si>
+    <t>If you are partying to hard and need a place to crash this place is worth it. Especially since waffle house is like 20 feet away its just the right spot to eat and crash and deal with tomorrow all in a great fashionable way. I wouldnt want to stay here more than a week but they do need to change out the sheets that are burnt through with cigarettes. The room was clean but in some cases the rooms were not what I expected. Like I said its just a great place to crash after a rough night.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r264294338-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>264294338</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>The Best Motel 6</t>
+  </si>
+  <si>
+    <t>I have probably have probably stayed overnight with at least twenty Motel 6s. The Irving location is by far the nicest. While the room did not have a refrigerator, the location had been recently redone. The beds were actually comfortable and the room did not smell like smoke.The location is perfect for passing through or using the airport. Three major gas stations are within two miles for late night snacks.For the price, the Motel 6 cannot be beat.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r127748990-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>127748990</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Excellent Value For Money, will stay there again.</t>
+  </si>
+  <si>
+    <t>We stayed here one night on the 17th April 2012, just after landing at DFW. This Motel 6 is a superb Motel that is very good value for money, our room was very clean and tidy. All good quality furniture. Shower was lovely and hot, the staff are very nice and helpful. The motel is located on Irving Blvd south loop 12, which is very close to Dallas Fort Worth Airport, highly recommended, and a great place to stay after a long flight.The Internet access is extra, but this is just $3 for 24 hours, a very reasonable price, will certainly stay here again next time I fly in or out of Dallas.Richard KaminskiMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We stayed here one night on the 17th April 2012, just after landing at DFW. This Motel 6 is a superb Motel that is very good value for money, our room was very clean and tidy. All good quality furniture. Shower was lovely and hot, the staff are very nice and helpful. The motel is located on Irving Blvd south loop 12, which is very close to Dallas Fort Worth Airport, highly recommended, and a great place to stay after a long flight.The Internet access is extra, but this is just $3 for 24 hours, a very reasonable price, will certainly stay here again next time I fly in or out of Dallas.Richard KaminskiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r118519648-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>118519648</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>Basic motel with good location , safe and clean</t>
+  </si>
+  <si>
+    <t>I have stayed at this motel which can be easily reached by public transportation using bus 408 from DFW Airport or bus 63 from Downtown Dallas.   The motel has recently been modernised with en-suite bathroom.   The rooms are always clean and the outside enviroment is always kept tidy.   Highly recommended if you want a basic room in a good location at a very reasonable rate.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r97105734-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>97105734</t>
+  </si>
+  <si>
+    <t>02/18/2011</t>
+  </si>
+  <si>
+    <t>When you just need a place to lay your head, you can't beat it.</t>
+  </si>
+  <si>
+    <t>A friend and I were in Dallas for the Super Bowl.  We did a lot of drinking on Saturday and Sunday and this place was perfect to just come back to and crash!  Anything more would have been a waste of money!  Also, the staff was very friendly and there were a few places to eat walking distance.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r13796024-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>13796024</t>
+  </si>
+  <si>
+    <t>02/23/2008</t>
+  </si>
+  <si>
+    <t>Would not stay here again.</t>
+  </si>
+  <si>
+    <t>We stayed one night on a trip across the U.S.  The room was gross and it smelled of cigerettes even though it was a non-smoking room, and if you stood near the back of the room sometimes it would smell worse.  My daughter's socks were black from walking on the floor.  I would avoid staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r850205-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>850205</t>
+  </si>
+  <si>
+    <t>01/29/2003</t>
+  </si>
+  <si>
+    <t>The Price just got better, under $30</t>
+  </si>
+  <si>
+    <t>I love this place, the staff is friendly and treat you like family and ALWAYS meet you at the door with a big smile. The place is an older motel, but they keep it clean and treat it like their home. I stay there everytime, I am in town. The price of a single room now is $29.99 I think it came to $34 and well worth it. I wish some of these bigger hotels could learn a thing or two from this place. A great group of people!</t>
   </si>
 </sst>
 </file>
@@ -648,6 +927,836 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_559.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Sändra K</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>When it comes to quick or extended stays on a budget, I always choose motels and absolutely prefer Motel 6 because the quality and cleanliness is always reliable, until the Motel 6 Dallas-Irving. The non-smoking room had an ashtray in it, burn stains on the curtains and bedspreads, and smelled as though it had been heavily smoked in for some time. There were baby roaches crawling all over the TV stand and dead baby roaches in the tub. When water was run in the tub it didn't drain. The floors had not been swept in some time (and mopped god knows when). There were drink spills on the floor and beds, and dingy stains on the bedskirts. It was so awful. I asked for another room and was given one, but the issues were the same with that room. It was too late after a very long drive to find another motel. I just cried. I want my money back and now question my loyalty to Motel 6. Just gross. More</t>
   </si>
   <si>
+    <t>Pauline V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r461394701-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Milly R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r441111562-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>One of the cleanest motel 6 I ever stayed at will definitely stay there again. Bed sheets had a good smell and pillows were very soft. Definitely good for the price. Would recommend anyone coming in town to pick here</t>
   </si>
   <si>
+    <t>AE42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r373941843-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Ambrose B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r372647806-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>Location was good for our needed stay; also there was a Waffle House and Whataburger close by. But the flooring was in poor shape, no Kleenex or extras of any kind.  Too noisy.  The air conditioner worked but did not seem to keep the moisture out.More</t>
   </si>
   <si>
+    <t>Derek S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r362126632-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>I was on a weekend trip to DFW, and simply needed a cheap place to sleep, as well as get ready for my day.  Although not necessarily the cleanest hotel in the world, this Motel 6 provided me with exactly what I needed.  The bed was quite firm, and the bathtub looked like it hadn't been as clean as it could be, but the shower was nice, the TV worked just fine, the temperature of the room was easily adjustable.  If you need somewhere cheap, without any of the fancy amenities of a 5-star hotel, then I recommend this place!</t>
   </si>
   <si>
+    <t>lhobbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r312523452-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jonathan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r269404105-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>ChrisS817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r264294338-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>trigga1526</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r127748990-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>We stayed here one night on the 17th April 2012, just after landing at DFW. This Motel 6 is a superb Motel that is very good value for money, our room was very clean and tidy. All good quality furniture. Shower was lovely and hot, the staff are very nice and helpful. The motel is located on Irving Blvd south loop 12, which is very close to Dallas Fort Worth Airport, highly recommended, and a great place to stay after a long flight.The Internet access is extra, but this is just $3 for 24 hours, a very reasonable price, will certainly stay here again next time I fly in or out of Dallas.Richard KaminskiMore</t>
   </si>
   <si>
+    <t>nicksuk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r118519648-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>stevenwsmithii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r97105734-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>Nicole C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r13796024-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -412,6 +451,9 @@
   </si>
   <si>
     <t>We stayed one night on a trip across the U.S.  The room was gross and it smelled of cigerettes even though it was a non-smoking room, and if you stood near the back of the room sometimes it would smell worse.  My daughter's socks were black from walking on the floor.  I would avoid staying here.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r850205-Motel_6_Dallas_Irving-Irving_Texas.html</t>
@@ -931,43 +973,47 @@
       <c r="A2" t="n">
         <v>5957</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -981,50 +1027,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5957</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>78465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1038,41 +1088,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5957</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -1091,50 +1145,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5957</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1152,50 +1210,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5957</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1211,47 +1273,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5957</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>8862</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -1270,50 +1336,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5957</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>97008</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1333,50 +1403,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5957</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>14062</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1390,50 +1464,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5957</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169300</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1447,50 +1525,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5957</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169301</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1514,50 +1596,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5957</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169302</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1581,50 +1667,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5957</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1648,41 +1738,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5957</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7431</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1701,41 +1795,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5957</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -1754,7 +1852,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_559.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_559.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,71 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Sändra K</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r576228358-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>243548</t>
+  </si>
+  <si>
+    <t>576228358</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Don’t let the new paint fool you, this place sucks.</t>
+  </si>
+  <si>
+    <t>This has to be the worst hotel experience I have ever had. My mother and I checked in around 4pm on Friday. We drop off our stuff and went to dinner. When we returned around 8:30pm we stopped by the office to see if they had some extra pillows. They told us the pillow were “locked up for the night” and we couldn’t have any. We went back to our room which is when I realized what a bare bones room we actually had. No free WiFi. No hairdryer. The cable was so basic it didn’t even have a channel guide. No alarm clock. No drawers. Just nothing in this room aside from beds and a bathroom.
+ This morning at 8am I walked down to the office to get a cup of coffee. They had maybe a half a cup left in the pot. I turned around and said to the gal behind the counte, “I think you’re out.” She said, “yeah, we’ve had a lot of people get coffee this morning.” I paused for a moment and then I said, “Are you not going to make anymore?” She then told no, she makes a pot and when it’s gone it’s gone. Are you kidding me?! Would it kill you to make another pot of coffee? It’s not like it was fancy expensive coffee. It hardly costs them a dime. And it’s not like the room was that cheap either....This has to be the worst hotel experience I have ever had. My mother and I checked in around 4pm on Friday. We drop off our stuff and went to dinner. When we returned around 8:30pm we stopped by the office to see if they had some extra pillows. They told us the pillow were “locked up for the night” and we couldn’t have any. We went back to our room which is when I realized what a bare bones room we actually had. No free WiFi. No hairdryer. The cable was so basic it didn’t even have a channel guide. No alarm clock. No drawers. Just nothing in this room aside from beds and a bathroom. This morning at 8am I walked down to the office to get a cup of coffee. They had maybe a half a cup left in the pot. I turned around and said to the gal behind the counte, “I think you’re out.” She said, “yeah, we’ve had a lot of people get coffee this morning.” I paused for a moment and then I said, “Are you not going to make anymore?” She then told no, she makes a pot and when it’s gone it’s gone. Are you kidding me?! Would it kill you to make another pot of coffee? It’s not like it was fancy expensive coffee. It hardly costs them a dime. And it’s not like the room was that cheap either. I will NEVER stay here again and I’ll be writing negative reviews everywhere else I can.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Irving, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>This has to be the worst hotel experience I have ever had. My mother and I checked in around 4pm on Friday. We drop off our stuff and went to dinner. When we returned around 8:30pm we stopped by the office to see if they had some extra pillows. They told us the pillow were “locked up for the night” and we couldn’t have any. We went back to our room which is when I realized what a bare bones room we actually had. No free WiFi. No hairdryer. The cable was so basic it didn’t even have a channel guide. No alarm clock. No drawers. Just nothing in this room aside from beds and a bathroom.
+ This morning at 8am I walked down to the office to get a cup of coffee. They had maybe a half a cup left in the pot. I turned around and said to the gal behind the counte, “I think you’re out.” She said, “yeah, we’ve had a lot of people get coffee this morning.” I paused for a moment and then I said, “Are you not going to make anymore?” She then told no, she makes a pot and when it’s gone it’s gone. Are you kidding me?! Would it kill you to make another pot of coffee? It’s not like it was fancy expensive coffee. It hardly costs them a dime. And it’s not like the room was that cheap either....This has to be the worst hotel experience I have ever had. My mother and I checked in around 4pm on Friday. We drop off our stuff and went to dinner. When we returned around 8:30pm we stopped by the office to see if they had some extra pillows. They told us the pillow were “locked up for the night” and we couldn’t have any. We went back to our room which is when I realized what a bare bones room we actually had. No free WiFi. No hairdryer. The cable was so basic it didn’t even have a channel guide. No alarm clock. No drawers. Just nothing in this room aside from beds and a bathroom. This morning at 8am I walked down to the office to get a cup of coffee. They had maybe a half a cup left in the pot. I turned around and said to the gal behind the counte, “I think you’re out.” She said, “yeah, we’ve had a lot of people get coffee this morning.” I paused for a moment and then I said, “Are you not going to make anymore?” She then told no, she makes a pot and when it’s gone it’s gone. Are you kidding me?! Would it kill you to make another pot of coffee? It’s not like it was fancy expensive coffee. It hardly costs them a dime. And it’s not like the room was that cheap either. I will NEVER stay here again and I’ll be writing negative reviews everywhere else I can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r481076501-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>481076501</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Rest and Relaxation!</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. The bright green in the room made me felt relaxed. Brought my own food, because I wasn't planning on going anywhere. The bed was very comfortable. The Guests Service Rep was polite.  I just needed some time for myself, something that I never get the chance to do. I do plan on going back again.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r477297224-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>243548</t>
-  </si>
-  <si>
     <t>477297224</t>
   </si>
   <si>
@@ -177,18 +227,9 @@
     <t>When it comes to quick or extended stays on a budget, I always choose motels and absolutely prefer Motel 6 because the quality and cleanliness is always reliable, until the Motel 6 Dallas-Irving. The non-smoking room had an ashtray in it, burn stains on the curtains and bedspreads, and smelled as though it had been heavily smoked in for some time. There were baby roaches crawling all over the TV stand and dead baby roaches in the tub. When water was run in the tub it didn't drain. The floors had not been swept in some time (and mopped god knows when). There were drink spills on the floor and beds, and dingy stains on the bedskirts. It was so awful. I asked for another room and was given one, but the issues were the same with that room. It was too late after a very long drive to find another motel. I just cried. I want my money back and now question my loyalty to Motel 6. Just gross. MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>When it comes to quick or extended stays on a budget, I always choose motels and absolutely prefer Motel 6 because the quality and cleanliness is always reliable, until the Motel 6 Dallas-Irving. The non-smoking room had an ashtray in it, burn stains on the curtains and bedspreads, and smelled as though it had been heavily smoked in for some time. There were baby roaches crawling all over the TV stand and dead baby roaches in the tub. When water was run in the tub it didn't drain. The floors had not been swept in some time (and mopped god knows when). There were drink spills on the floor and beds, and dingy stains on the bedskirts. It was so awful. I asked for another room and was given one, but the issues were the same with that room. It was too late after a very long drive to find another motel. I just cried. I want my money back and now question my loyalty to Motel 6. Just gross. More</t>
   </si>
   <si>
-    <t>Pauline V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r461394701-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -210,9 +251,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Milly R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r441111562-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -228,7 +266,43 @@
     <t>One of the cleanest motel 6 I ever stayed at will definitely stay there again. Bed sheets had a good smell and pillows were very soft. Definitely good for the price. Would recommend anyone coming in town to pick here</t>
   </si>
   <si>
-    <t>AE42</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r429988807-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>429988807</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience </t>
+  </si>
+  <si>
+    <t>The room was clean smell like it was painted. The latina girl at the desk in the mornings she was very good gave me the directions to the fair. It is close to the cotton ball ans it was a plus for us I will stay here again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r396290857-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>396290857</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>1 night stay</t>
+  </si>
+  <si>
+    <t>Stayed here at motel 6 for just one night as we were passing thru. Ac was cold. Staff was ok balcony on second level looks like it could fall down any day. Would probably stay again for the price but not with my kids again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r373941843-Motel_6_Dallas_Irving-Irving_Texas.html</t>
@@ -249,9 +323,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Ambrose B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r372647806-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,9 +350,6 @@
     <t>Location was good for our needed stay; also there was a Waffle House and Whataburger close by. But the flooring was in poor shape, no Kleenex or extras of any kind.  Too noisy.  The air conditioner worked but did not seem to keep the moisture out.More</t>
   </si>
   <si>
-    <t>Derek S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r362126632-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,7 +365,40 @@
     <t>I was on a weekend trip to DFW, and simply needed a cheap place to sleep, as well as get ready for my day.  Although not necessarily the cleanest hotel in the world, this Motel 6 provided me with exactly what I needed.  The bed was quite firm, and the bathtub looked like it hadn't been as clean as it could be, but the shower was nice, the TV worked just fine, the temperature of the room was easily adjustable.  If you need somewhere cheap, without any of the fancy amenities of a 5-star hotel, then I recommend this place!</t>
   </si>
   <si>
-    <t>lhobbs</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r331068896-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>331068896</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Value for money if you want a basic room , tv and somewhere safe to stay</t>
+  </si>
+  <si>
+    <t>I have stayed here before as without a car has a bus stop almost outside serving Downtown Dallas ,Transit Station and DFW Airport. Room is basic , clean , tidy with 24 tv channels and little noise out</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r330031815-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>330031815</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>A quick overnight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a late flight we wanted some place close to DFW to lay our heads. The room was on the small side but clean and comfortable. The motel is in a decent part of town. No frills, no breakfast, not even a hair dryer in the room, but got one at the front desk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r312523452-Motel_6_Dallas_Irving-Irving_Texas.html</t>
@@ -318,9 +419,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Jonathan B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r269404105-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -339,12 +437,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>ChrisS817</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r264294338-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -363,10 +455,40 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>trigga1526</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r173842523-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>173842523</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Excellent Value for Money</t>
+  </si>
+  <si>
+    <t>Loved the new laminate flooring! Absolutely no worries about hotel carpet, y'all KNOW what I mean.  The room was clean, the air worked great (it was 106 that afternoon), and it was quiet.  I was there on a Saturday night.  The only downside is that there are not restaurants within walking distance but Dominos delivers.I was very happy with this Motel 6</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r165982655-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>165982655</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Motel 6 Irving, Tx</t>
+  </si>
+  <si>
+    <t>Think twice before you stay here.  We thought it would be good.  But had to pay 2.99 to have internet service &amp; it was as slow as molasses.  Got up the next morning to leave picked up our bags &amp; a 3 inch bug ran out of our bags.  They didn't offer to refund any of our money.  we won't be staying there any more.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r127748990-Motel_6_Dallas_Irving-Irving_Texas.html</t>
@@ -390,9 +512,6 @@
     <t>We stayed here one night on the 17th April 2012, just after landing at DFW. This Motel 6 is a superb Motel that is very good value for money, our room was very clean and tidy. All good quality furniture. Shower was lovely and hot, the staff are very nice and helpful. The motel is located on Irving Blvd south loop 12, which is very close to Dallas Fort Worth Airport, highly recommended, and a great place to stay after a long flight.The Internet access is extra, but this is just $3 for 24 hours, a very reasonable price, will certainly stay here again next time I fly in or out of Dallas.Richard KaminskiMore</t>
   </si>
   <si>
-    <t>nicksuk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r118519648-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -411,12 +530,6 @@
     <t>November 2010</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>stevenwsmithii</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r97105734-Motel_6_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -435,7 +548,43 @@
     <t>February 2011</t>
   </si>
   <si>
-    <t>Nicole C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r51515710-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>51515710</t>
+  </si>
+  <si>
+    <t>12/19/2009</t>
+  </si>
+  <si>
+    <t>One of the best inexpensive hotel's in the area!</t>
+  </si>
+  <si>
+    <t>I stay in the DFW area 3 - 5 times a month and have tried multiple hotel's.  Motel 6 is the winner by far.  They have remodeled and the rooms are clean and neat - very European in style.  Flat screen tv's on the wall, nice size bathrooms, and very quiet considering they are between a highway and a major airport.  Not a lot of amenities but that enables them to keep the price down.  They have vending machines with multiple options, a microwave oven and there are multiple restaurants in the area that deliver.  The staff is always pleasant &amp; try to accommodate special requests (ie: hair dryers, iron &amp; ironing board).  Since I stay there so often they feel like family to me and always treat me well.  I won't stay anywhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I stay in the DFW area 3 - 5 times a month and have tried multiple hotel's.  Motel 6 is the winner by far.  They have remodeled and the rooms are clean and neat - very European in style.  Flat screen tv's on the wall, nice size bathrooms, and very quiet considering they are between a highway and a major airport.  Not a lot of amenities but that enables them to keep the price down.  They have vending machines with multiple options, a microwave oven and there are multiple restaurants in the area that deliver.  The staff is always pleasant &amp; try to accommodate special requests (ie: hair dryers, iron &amp; ironing board).  Since I stay there so often they feel like family to me and always treat me well.  I won't stay anywhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r24788515-Motel_6_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>24788515</t>
+  </si>
+  <si>
+    <t>02/19/2009</t>
+  </si>
+  <si>
+    <t>rat hole</t>
+  </si>
+  <si>
+    <t>stayed at this hotel is a pit  beds are like a single mattress on a platform, cheap plastic floors,  small dark, noisy  a real bad pit</t>
+  </si>
+  <si>
+    <t>January 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r13796024-Motel_6_Dallas_Irving-Irving_Texas.html</t>
@@ -451,9 +600,6 @@
   </si>
   <si>
     <t>We stayed one night on a trip across the U.S.  The room was gross and it smelled of cigerettes even though it was a non-smoking room, and if you stood near the back of the room sometimes it would smell worse.  My daughter's socks were black from walking on the floor.  I would avoid staying here.</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243548-r850205-Motel_6_Dallas_Irving-Irving_Texas.html</t>
@@ -973,47 +1119,43 @@
       <c r="A2" t="n">
         <v>5957</v>
       </c>
-      <c r="B2" t="n">
-        <v>169296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1024,36 +1166,36 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5957</v>
       </c>
-      <c r="B3" t="n">
-        <v>78465</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
@@ -1095,44 +1237,44 @@
       <c r="A4" t="n">
         <v>5957</v>
       </c>
-      <c r="B4" t="n">
-        <v>169297</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1152,178 +1294,154 @@
       <c r="A5" t="n">
         <v>5957</v>
       </c>
-      <c r="B5" t="n">
-        <v>169298</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
         <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5957</v>
       </c>
-      <c r="B6" t="n">
-        <v>169299</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5957</v>
       </c>
-      <c r="B7" t="n">
-        <v>8862</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1336,327 +1454,293 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5957</v>
       </c>
-      <c r="B8" t="n">
-        <v>97008</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5957</v>
       </c>
-      <c r="B9" t="n">
-        <v>14062</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5957</v>
       </c>
-      <c r="B10" t="n">
-        <v>169300</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5957</v>
       </c>
-      <c r="B11" t="n">
-        <v>169301</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5957</v>
       </c>
-      <c r="B12" t="n">
-        <v>169302</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>3</v>
@@ -1667,179 +1751,171 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5957</v>
       </c>
-      <c r="B13" t="n">
-        <v>169303</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5957</v>
       </c>
-      <c r="B14" t="n">
-        <v>7431</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5957</v>
       </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -1852,7 +1928,639 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5957</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
